--- a/biology/Botanique/Chronologie_du_genre_Banksia/Chronologie_du_genre_Banksia.xlsx
+++ b/biology/Botanique/Chronologie_du_genre_Banksia/Chronologie_du_genre_Banksia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la chronologie des développements dans la connaissance et la compréhension du genre Banksia, genre de plantes endémiques d'Australie :
 </t>
@@ -511,7 +523,9 @@
           <t>XVIIIe siècle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Avril 1770 - Sir Joseph Banks et Daniel Solander récoltent les premiers spécimens de Banksia à Botany Bay, Nouvelle-Galles du Sud. Quatre espèce sont  représentées : Banksia serrata (Banksia scie), Banksia integrifolia (banksia côtier), Banksia ericifolia (banksia à feuilles de bruyère) et Banksia robur (banksia des marais).
 Juin 1770 — Banks et Solander récoltent des spécimens de Banksia dentata (banksia tropical) à Endeavour River (Queensland).
@@ -550,7 +564,9 @@
           <t>XIXe siècle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Début des années 1800 — George Caley récolte des spécimens de Banksia spinulosa var. collina à Newcastle (Nouvelle-Galles du Sud).
 1800 — Labillardière publie Banksia repens.
@@ -615,7 +631,9 @@
           <t>XXe siècle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Décembre 1926 — Charles Gardner récolte les premiers spécimens de Banksia violacea (banksia violet) et Banksia audax.
 1928 — Ces deux espèces sont publiées par Gardner.
@@ -669,7 +687,9 @@
           <t>XXIe siècle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2000 — Le projet de Rosser de peindre chaque espèce de Banksia se conclut avec la publication du troisième et dernier volume de sa monographie The Banksias.
 Septembre 2000 — John Cullen récolte le premier spécimen de Banksia rosserae.
